--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/spim.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/spim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7C416E-22F9-40CE-970A-D0989293EC64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF87FD3-A1C1-4A2C-B6BD-4F8AACC97648}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="862" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="481">
   <si>
     <t/>
   </si>
@@ -1883,6 +1883,10 @@
   </si>
   <si>
     <t>[structuredAnnotation:0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:Annotation</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5136,7 +5140,7 @@
         <v>478</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/spim.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/spim.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF87FD3-A1C1-4A2C-B6BD-4F8AACC97648}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773B38E7-E039-47EA-91E9-DC10A0BACD1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="862" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="862" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="35" r:id="rId1"/>
@@ -32,8 +32,8 @@
     <sheet name="Plane" sheetId="32" r:id="rId17"/>
     <sheet name="Structured_Annotations" sheetId="55" r:id="rId18"/>
     <sheet name="XML_Annotation" sheetId="34" r:id="rId19"/>
-    <sheet name="Unit" sheetId="47" r:id="rId20"/>
-    <sheet name="size" sheetId="48" r:id="rId21"/>
+    <sheet name="size" sheetId="48" r:id="rId20"/>
+    <sheet name="position" sheetId="56" r:id="rId21"/>
     <sheet name="distance" sheetId="49" r:id="rId22"/>
     <sheet name="waveLength" sheetId="52" r:id="rId23"/>
     <sheet name="time" sheetId="53" r:id="rId24"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="468">
   <si>
     <t/>
   </si>
@@ -1256,10 +1256,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>UO:0000010</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PATO:0000165</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1320,18 +1316,6 @@
   </si>
   <si>
     <t>correction:other</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1342,99 +1326,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>unit:nm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"nano-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000300</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:MHz</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"mega-heltz"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000293</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000106</t>
-  </si>
-  <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"micro-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000299</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:mW</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"milli-watt"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000297</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000114</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1552,10 +1444,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/spim/unit/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>laserType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1887,6 +1775,55 @@
   </si>
   <si>
     <t>:Annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[position:1frame]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PATO:0000140</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[position:2frame]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[position:1frame]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[position:2frame]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitLength:referenceFrame</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:nm</t>
+  </si>
+  <si>
+    <t>unitTime:s</t>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitTime#</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1894,7 +1831,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1923,13 +1860,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1963,7 +1893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1982,16 +1912,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -2316,20 +2237,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703DD309-F2BC-442B-96CC-9CB0BA236952}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2337,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2345,7 +2266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2353,7 +2274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2361,7 +2282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2369,7 +2290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2377,7 +2298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>126</v>
       </c>
@@ -2385,7 +2306,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>128</v>
       </c>
@@ -2393,55 +2314,55 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+        <v>354</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>131</v>
       </c>
@@ -2449,7 +2370,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>133</v>
       </c>
@@ -2457,7 +2378,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>135</v>
       </c>
@@ -2465,7 +2386,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>137</v>
       </c>
@@ -2473,7 +2394,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>139</v>
       </c>
@@ -2481,7 +2402,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>141</v>
       </c>
@@ -2489,63 +2410,63 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>143</v>
       </c>
@@ -2553,7 +2474,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>144</v>
       </c>
@@ -2561,7 +2482,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>145</v>
       </c>
@@ -2569,7 +2490,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>146</v>
       </c>
@@ -2577,20 +2498,28 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>361</v>
+        <v>185</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>185</v>
+        <v>464</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>395</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -2601,24 +2530,25 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6639DBA-0F0B-4C54-A3B3-213F6ADA739B}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>106</v>
@@ -2626,16 +2556,20 @@
       <c r="D1" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -2646,13 +2580,16 @@
       <c r="D3" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>101</v>
@@ -2660,10 +2597,13 @@
       <c r="D4" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>192</v>
@@ -2671,10 +2611,13 @@
       <c r="D5" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>240</v>
@@ -2682,10 +2625,13 @@
       <c r="D6" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>241</v>
@@ -2693,16 +2639,22 @@
       <c r="D7" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>247</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>248</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2717,17 +2669,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2744,7 +2696,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2753,7 +2705,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -2768,7 +2720,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -2785,12 +2737,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
@@ -2799,12 +2751,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
@@ -2813,12 +2765,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -2827,12 +2779,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -2853,16 +2805,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2879,7 +2831,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2890,7 +2842,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -2905,7 +2857,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -2916,66 +2868,66 @@
         <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>196</v>
+        <v>456</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D5" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D6" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D7" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>248</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
+      <c r="D8" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -2990,22 +2942,22 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3016,7 +2968,7 @@
         <v>151</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>79</v>
@@ -3052,7 +3004,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3071,7 +3023,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3080,43 +3032,43 @@
         <v>153</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3130,13 +3082,13 @@
         <v>84</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>39</v>
@@ -3154,33 +3106,33 @@
         <v>39</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="D5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -3207,7 +3159,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>182</v>
       </c>
@@ -3221,7 +3173,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>182</v>
       </c>
@@ -3232,7 +3184,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>182</v>
       </c>
@@ -3243,7 +3195,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>182</v>
       </c>
@@ -3254,7 +3206,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>182</v>
       </c>
@@ -3265,7 +3217,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>182</v>
       </c>
@@ -3276,7 +3228,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>182</v>
       </c>
@@ -3287,24 +3239,24 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="D13" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -3331,7 +3283,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>234</v>
       </c>
@@ -3345,7 +3297,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>234</v>
       </c>
@@ -3356,7 +3308,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>234</v>
       </c>
@@ -3367,7 +3319,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>234</v>
       </c>
@@ -3378,7 +3330,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>234</v>
       </c>
@@ -3389,7 +3341,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>234</v>
       </c>
@@ -3400,7 +3352,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>234</v>
       </c>
@@ -3411,24 +3363,24 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="D21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H21" s="1">
         <v>2</v>
@@ -3455,7 +3407,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>239</v>
       </c>
@@ -3469,7 +3421,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>239</v>
       </c>
@@ -3480,7 +3432,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>239</v>
       </c>
@@ -3491,7 +3443,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>239</v>
       </c>
@@ -3502,7 +3454,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>239</v>
       </c>
@@ -3513,7 +3465,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>239</v>
       </c>
@@ -3524,7 +3476,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>239</v>
       </c>
@@ -3535,24 +3487,24 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="D29" t="s">
+        <v>320</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H29" s="1">
         <v>2</v>
@@ -3579,7 +3531,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>246</v>
       </c>
@@ -3593,7 +3545,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>246</v>
       </c>
@@ -3604,7 +3556,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>246</v>
       </c>
@@ -3615,7 +3567,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>246</v>
       </c>
@@ -3626,7 +3578,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>246</v>
       </c>
@@ -3637,7 +3589,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>246</v>
       </c>
@@ -3648,7 +3600,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>246</v>
       </c>
@@ -3671,17 +3623,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3698,7 +3650,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3707,7 +3659,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3722,7 +3674,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3739,116 +3691,116 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>270</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>303</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -3863,15 +3815,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3882,14 +3834,14 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3898,7 +3850,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3909,7 +3861,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>209</v>
       </c>
@@ -3917,7 +3869,7 @@
         <v>16711935</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>208</v>
       </c>
@@ -3937,17 +3889,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3964,7 +3916,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3973,7 +3925,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3988,7 +3940,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -4002,10 +3954,10 @@
         <v>97</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>198</v>
       </c>
@@ -4019,7 +3971,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>199</v>
       </c>
@@ -4033,7 +3985,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>200</v>
       </c>
@@ -4047,7 +3999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>203</v>
       </c>
@@ -4061,7 +4013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>204</v>
       </c>
@@ -4075,7 +4027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>205</v>
       </c>
@@ -4089,7 +4041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>206</v>
       </c>
@@ -4103,7 +4055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>207</v>
       </c>
@@ -4117,7 +4069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>253</v>
       </c>
@@ -4131,7 +4083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>254</v>
       </c>
@@ -4145,7 +4097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>255</v>
       </c>
@@ -4159,7 +4111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>256</v>
       </c>
@@ -4173,7 +4125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>257</v>
       </c>
@@ -4187,7 +4139,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>258</v>
       </c>
@@ -4201,7 +4153,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>259</v>
       </c>
@@ -4215,7 +4167,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>260</v>
       </c>
@@ -4229,7 +4181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>271</v>
       </c>
@@ -4243,7 +4195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>273</v>
       </c>
@@ -4257,7 +4209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>276</v>
       </c>
@@ -4271,7 +4223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>277</v>
       </c>
@@ -4285,7 +4237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>278</v>
       </c>
@@ -4299,7 +4251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>279</v>
       </c>
@@ -4313,7 +4265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>280</v>
       </c>
@@ -4327,7 +4279,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>281</v>
       </c>
@@ -4341,7 +4293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>282</v>
       </c>
@@ -4355,7 +4307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>283</v>
       </c>
@@ -4369,7 +4321,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>284</v>
       </c>
@@ -4383,7 +4335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>285</v>
       </c>
@@ -4397,7 +4349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>286</v>
       </c>
@@ -4411,7 +4363,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>297</v>
       </c>
@@ -4425,7 +4377,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>298</v>
       </c>
@@ -4439,7 +4391,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>299</v>
       </c>
@@ -4465,16 +4417,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4494,7 +4446,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4504,7 +4456,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -4522,7 +4474,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -4539,10 +4491,10 @@
         <v>121</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>217</v>
       </c>
@@ -4556,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>218</v>
       </c>
@@ -4573,10 +4525,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>219</v>
       </c>
@@ -4590,10 +4542,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>220</v>
       </c>
@@ -4607,10 +4559,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>221</v>
       </c>
@@ -4624,10 +4576,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>222</v>
       </c>
@@ -4641,10 +4593,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>223</v>
       </c>
@@ -4658,10 +4610,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>224</v>
       </c>
@@ -4675,10 +4627,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>261</v>
       </c>
@@ -4692,10 +4644,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>262</v>
       </c>
@@ -4709,10 +4661,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>263</v>
       </c>
@@ -4726,10 +4678,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>264</v>
       </c>
@@ -4743,10 +4695,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>265</v>
       </c>
@@ -4760,10 +4712,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>266</v>
       </c>
@@ -4777,10 +4729,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>267</v>
       </c>
@@ -4794,10 +4746,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>268</v>
       </c>
@@ -4811,10 +4763,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>272</v>
       </c>
@@ -4828,10 +4780,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>275</v>
       </c>
@@ -4845,10 +4797,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>274</v>
       </c>
@@ -4862,10 +4814,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>287</v>
       </c>
@@ -4879,10 +4831,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>288</v>
       </c>
@@ -4896,10 +4848,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>289</v>
       </c>
@@ -4913,10 +4865,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>290</v>
       </c>
@@ -4930,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>291</v>
       </c>
@@ -4947,10 +4899,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>292</v>
       </c>
@@ -4964,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>293</v>
       </c>
@@ -4981,10 +4933,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>294</v>
       </c>
@@ -4998,10 +4950,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>295</v>
       </c>
@@ -5015,10 +4967,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>296</v>
       </c>
@@ -5032,10 +4984,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>301</v>
       </c>
@@ -5049,10 +5001,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>300</v>
       </c>
@@ -5066,10 +5018,10 @@
         <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>302</v>
       </c>
@@ -5083,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5098,102 +5050,102 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>231</v>
@@ -5212,18 +5164,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="133.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="87.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="133.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5243,7 +5195,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5255,7 +5207,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5270,10 +5222,10 @@
         <v>306</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -5293,105 +5245,105 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="409.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="409.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>311</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="126" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="108" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>312</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>314</v>
@@ -5412,16 +5364,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5435,7 +5387,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5443,7 +5395,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5455,7 +5407,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -5469,18 +5421,18 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>157</v>
       </c>
@@ -5488,7 +5440,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>157</v>
       </c>
@@ -5496,7 +5448,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>157</v>
       </c>
@@ -5504,7 +5456,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>157</v>
       </c>
@@ -5512,7 +5464,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>157</v>
       </c>
@@ -5520,7 +5472,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>157</v>
       </c>
@@ -5535,196 +5487,51 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF1FFBD-E6FC-4AAE-BD7A-BFC1AAFF2F15}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D7" t="s">
-        <v>355</v>
-      </c>
-      <c r="E7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="D8" t="s">
-        <v>358</v>
-      </c>
-      <c r="E8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C796B23-5A63-428D-95CA-40DFE5C866D6}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>213</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5733,32 +5540,132 @@
         <v>214</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
-      <c r="D5" t="s">
-        <v>353</v>
+      <c r="D5" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A92C05-2BE6-4FD7-A8F9-F6243EDBD828}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -5771,49 +5678,49 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AEDD97-20C6-4B1D-A3AC-702CEDE783F1}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>213</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5822,43 +5729,43 @@
         <v>214</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>368</v>
+      <c r="B4" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C5">
         <v>19800</v>
       </c>
-      <c r="D5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>353</v>
+      <c r="D6" s="6" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -5870,50 +5777,50 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E670CC8-3929-4F4F-83B5-550DA3AAFFF6}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>213</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5922,32 +5829,32 @@
         <v>214</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C5">
         <v>448</v>
       </c>
-      <c r="D5" t="s">
-        <v>345</v>
+      <c r="D5" s="6" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -5959,49 +5866,49 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C5D0E3-1147-4B7D-9216-E0AAA1BFEAFE}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>213</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -6010,32 +5917,32 @@
         <v>214</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C5">
         <v>500</v>
       </c>
-      <c r="D5" t="s">
-        <v>316</v>
+      <c r="D5" s="6" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -6050,18 +5957,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6081,7 +5988,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -6091,7 +5998,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -6109,7 +6016,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -6129,18 +6036,18 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>164</v>
@@ -6158,15 +6065,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6177,7 +6084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -6186,7 +6093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -6195,7 +6102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -6206,7 +6113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>164</v>
       </c>
@@ -6226,21 +6133,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6269,7 +6176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -6282,7 +6189,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -6309,7 +6216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -6329,7 +6236,7 @@
         <v>168</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>38</v>
@@ -6338,30 +6245,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I5" t="s">
         <v>326</v>
-      </c>
-      <c r="I5" t="s">
-        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -6376,18 +6283,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6407,7 +6314,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -6417,7 +6324,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -6435,7 +6342,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -6455,21 +6362,21 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -6484,19 +6391,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6519,7 +6426,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -6530,7 +6437,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -6551,7 +6458,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -6574,24 +6481,24 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -6606,24 +6513,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6661,7 +6568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -6677,7 +6584,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -6713,7 +6620,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -6733,7 +6640,7 @@
         <v>168</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>43</v>
@@ -6751,73 +6658,73 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="H5" s="1">
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J5" s="1">
         <v>0.95</v>
       </c>
       <c r="K5" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="L5" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="G7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
@@ -6826,7 +6733,7 @@
         <v>0.5</v>
       </c>
       <c r="K7" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="L7" s="1">
         <v>5.12</v>
@@ -6843,23 +6750,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7689A4D9-61F1-4D68-B2DF-2ED5097F8E75}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6882,13 +6791,13 @@
         <v>185</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -6903,7 +6812,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -6924,13 +6833,13 @@
         <v>186</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -6953,18 +6862,18 @@
         <v>187</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>183</v>
@@ -6979,13 +6888,13 @@
         <v>157</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>181</v>
       </c>
@@ -6993,7 +6902,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>181</v>
       </c>
@@ -7001,7 +6910,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>181</v>
       </c>
@@ -7009,12 +6918,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>233</v>
@@ -7029,13 +6938,13 @@
         <v>157</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>232</v>
       </c>
@@ -7043,7 +6952,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>232</v>
       </c>
@@ -7051,7 +6960,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>232</v>
       </c>
@@ -7059,12 +6968,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>238</v>
@@ -7079,13 +6988,13 @@
         <v>157</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>237</v>
       </c>
@@ -7093,7 +7002,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>237</v>
       </c>
@@ -7101,7 +7010,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>237</v>
       </c>
@@ -7109,12 +7018,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>245</v>
@@ -7129,13 +7038,13 @@
         <v>157</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>244</v>
       </c>
@@ -7143,7 +7052,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>244</v>
       </c>
@@ -7151,7 +7060,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>244</v>
       </c>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/spim.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/spim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773B38E7-E039-47EA-91E9-DC10A0BACD1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16389A8-27D7-413F-A3EF-9DB12A02471D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="862" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="497">
   <si>
     <t/>
   </si>
@@ -503,10 +503,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/spim/image/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/spim/plate/</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -547,30 +543,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[objective:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[detector:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[microscope:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[laser:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[objective:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[objective:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[manufacturer:omesample]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -623,10 +595,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[led:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>detector type</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -643,10 +611,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"Spim Sample Tile 1 Angle 1"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -683,14 +647,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[objectiveSettings:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[stageLabel:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>medium:oil</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -707,46 +663,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[bindata:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:0.0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:0.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[color:-1]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -781,38 +697,6 @@
     <t>/wCrzur//wB5oMPi/wBIbJO3AP8ePGCF</t>
   </si>
   <si>
-    <t>[plane:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>plane</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -825,22 +709,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[xmlAnnotation:ExtraStageLabel:1:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[xmlAnnotation:SpimSet:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[xmlAnnotation:ObjectiveAdditions:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[xmlAnnotation:SystemSpecific:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -849,18 +717,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[stageLabel:image1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[xmlAnnotation:ExtraStageLabel:1:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image2</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -869,26 +725,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[objectiveSettings:image1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[objectiveSettings:image2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[stageLabel:image2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[xmlAnnotation:ExtraStageLabel:1:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image3</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -897,239 +733,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[objectiveSettings:image3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[stageLabel:image3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[xmlAnnotation:ExtraStageLabel:1:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"(1,2) of 1x2"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:1.0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:1.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:9]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:10]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:11]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:12]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:13]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:14]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:15]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:16]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:9]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:10]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:11]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:12]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:13]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:14]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:15]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:16]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:2.0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:2.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:17]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:17]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:18]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:19]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:18]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:19]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:20]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:21]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:22]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:23]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:24]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:25]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:26]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:27]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:28]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:29]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:20]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:21]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:22]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:23]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:24]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:25]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:26]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:27]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:28]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:29]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:30]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:31]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:32]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:31]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:30]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plane:32]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:3.0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:3.1]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1730,22 +1334,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[imagingCondition:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[imagingCondition:image1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[imagingCondition:image2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[imagingCondition:image3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:nonNegativeLong</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1824,6 +1412,502 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitTime#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>microscope</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>laser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>led</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detector</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objectiveSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stageLabel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plane</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/spim/image/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/spim/microscope/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/spim/laser/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/spim/led/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/spim/detector/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/spim/objective/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/spim/imagingCondition/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/spim/objectiveSettings/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/spim/stageLabel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/spim/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/spim/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/spim/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/spim/plane/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/spim/xmlAnnotation/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>microscope:microscope0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>laser:laser0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detector:detector0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>led:led0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective:objective0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective:objective1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective:objective2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:image0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:image1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:image2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:image3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imagingCondition:image0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imagingCondition:image1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imagingCondition:image2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imagingCondition:image3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:ExtraStageLabel1.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:SpimSet1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:ObjectiveAdditions1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:SystemSpecific1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:ExtraStageLabel1.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:ExtraStageLabel1:2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:ExtraStageLabel1:3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objectiveSettings:image0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objectiveSettings:image1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objectiveSettings:image2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objectiveSettings:image3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stageLabel:image0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stageLabel:image1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stageLabel:image2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stageLabel:image3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel1.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel1.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel2.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel2.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel3.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel3.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata13</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata14</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata15</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata18</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata19</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata21</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata22</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata23</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata25</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata26</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata27</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata28</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata29</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata30</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata31</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata32</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plane:plane1</t>
+  </si>
+  <si>
+    <t>plane:plane2</t>
+  </si>
+  <si>
+    <t>plane:plane3</t>
+  </si>
+  <si>
+    <t>plane:plane4</t>
+  </si>
+  <si>
+    <t>plane:plane5</t>
+  </si>
+  <si>
+    <t>plane:plane6</t>
+  </si>
+  <si>
+    <t>plane:plane7</t>
+  </si>
+  <si>
+    <t>plane:plane8</t>
+  </si>
+  <si>
+    <t>plane:plane9</t>
+  </si>
+  <si>
+    <t>plane:plane10</t>
+  </si>
+  <si>
+    <t>plane:plane11</t>
+  </si>
+  <si>
+    <t>plane:plane12</t>
+  </si>
+  <si>
+    <t>plane:plane13</t>
+  </si>
+  <si>
+    <t>plane:plane14</t>
+  </si>
+  <si>
+    <t>plane:plane15</t>
+  </si>
+  <si>
+    <t>plane:plane16</t>
+  </si>
+  <si>
+    <t>plane:plane17</t>
+  </si>
+  <si>
+    <t>plane:plane18</t>
+  </si>
+  <si>
+    <t>plane:plane19</t>
+  </si>
+  <si>
+    <t>plane:plane20</t>
+  </si>
+  <si>
+    <t>plane:plane21</t>
+  </si>
+  <si>
+    <t>plane:plane22</t>
+  </si>
+  <si>
+    <t>plane:plane23</t>
+  </si>
+  <si>
+    <t>plane:plane24</t>
+  </si>
+  <si>
+    <t>plane:plane25</t>
+  </si>
+  <si>
+    <t>plane:plane26</t>
+  </si>
+  <si>
+    <t>plane:plane27</t>
+  </si>
+  <si>
+    <t>plane:plane28</t>
+  </si>
+  <si>
+    <t>plane:plane29</t>
+  </si>
+  <si>
+    <t>plane:plane30</t>
+  </si>
+  <si>
+    <t>plane:plane31</t>
+  </si>
+  <si>
+    <t>plane:plane32</t>
+  </si>
+  <si>
+    <t>xmlAnnotation:ExtraStageLabel1:0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:ExtraStageLabel1:1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>English Attribution</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2239,14 +2323,14 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2316,47 +2400,47 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>351</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>353</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>354</v>
+        <v>255</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>355</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>357</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
@@ -2412,119 +2496,224 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>361</v>
+        <v>262</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>362</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>363</v>
+        <v>264</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>365</v>
+        <v>266</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>366</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>360</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>367</v>
+        <v>268</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>368</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>429</v>
+        <v>330</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>430</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>370</v>
+        <v>271</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>371</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>361</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>147</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>144</v>
+        <v>363</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>148</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>149</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>369</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>464</v>
+        <v>146</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>465</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>466</v>
+        <v>176</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>467</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2536,11 +2725,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -2548,16 +2737,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>440</v>
+        <v>341</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>106</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2575,13 +2764,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -2589,72 +2778,72 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>439</v>
+        <v>340</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>414</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>193</v>
+        <v>418</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>240</v>
+        <v>415</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>235</v>
+        <v>419</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>241</v>
+        <v>416</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>242</v>
+        <v>420</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>247</v>
+        <v>417</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>248</v>
+        <v>421</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2672,8 +2861,8 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
@@ -2687,7 +2876,7 @@
         <v>106</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>105</v>
@@ -2711,7 +2900,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>103</v>
@@ -2728,7 +2917,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>43</v>
@@ -2739,58 +2928,58 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>414</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>397</v>
+        <v>298</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>415</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>397</v>
+        <v>298</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>241</v>
+        <v>416</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>397</v>
+        <v>298</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>247</v>
+        <v>417</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>397</v>
+        <v>298</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2808,7 +2997,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
@@ -2825,7 +3014,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>108</v>
@@ -2868,66 +3057,66 @@
         <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>456</v>
+        <v>353</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>456</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>193</v>
+        <v>418</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>455</v>
+        <v>352</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>455</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>419</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>455</v>
+        <v>352</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>457</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>242</v>
+        <v>420</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>455</v>
+        <v>352</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>455</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>421</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>455</v>
+        <v>352</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>457</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2945,15 +3134,15 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2965,10 +3154,10 @@
         <v>71</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>79</v>
@@ -3001,7 +3190,7 @@
         <v>77</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
@@ -3029,43 +3218,43 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>372</v>
+        <v>273</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>373</v>
+        <v>274</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>375</v>
+        <v>276</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>376</v>
+        <v>277</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>377</v>
+        <v>278</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>378</v>
+        <v>279</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>382</v>
+        <v>283</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>383</v>
+        <v>284</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -3076,19 +3265,19 @@
         <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>380</v>
+        <v>281</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>39</v>
@@ -3106,33 +3295,33 @@
         <v>39</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>381</v>
+        <v>282</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>384</v>
+        <v>285</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>182</v>
+        <v>399</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>409</v>
+        <v>310</v>
       </c>
       <c r="D5" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -3150,113 +3339,113 @@
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>201</v>
+        <v>422</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>198</v>
+        <v>430</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>217</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>399</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>202</v>
+        <v>423</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>199</v>
+        <v>431</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>218</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>182</v>
+        <v>399</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>200</v>
+        <v>432</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>219</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>399</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>203</v>
+        <v>433</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>220</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>182</v>
+        <v>399</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>204</v>
+        <v>434</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>221</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>182</v>
+        <v>399</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>205</v>
+        <v>435</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>222</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>399</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>206</v>
+        <v>436</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>223</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>182</v>
+        <v>399</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>207</v>
+        <v>437</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>224</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>410</v>
+        <v>311</v>
       </c>
       <c r="D13" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -3274,113 +3463,113 @@
         <v>2</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>251</v>
+        <v>424</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>253</v>
+        <v>438</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>261</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>252</v>
+        <v>425</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>254</v>
+        <v>439</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>262</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>255</v>
+        <v>440</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>263</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>256</v>
+        <v>441</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>264</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>257</v>
+        <v>442</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>265</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>258</v>
+        <v>443</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>266</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>259</v>
+        <v>444</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>267</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>260</v>
+        <v>445</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>268</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>239</v>
+        <v>401</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
       <c r="D21" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="H21" s="1">
         <v>2</v>
@@ -3398,113 +3587,113 @@
         <v>2</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>269</v>
+        <v>426</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>271</v>
+        <v>446</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>272</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>239</v>
+        <v>401</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>270</v>
+        <v>427</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>273</v>
+        <v>447</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>275</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>239</v>
+        <v>401</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>276</v>
+        <v>448</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>274</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>239</v>
+        <v>401</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>277</v>
+        <v>449</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>287</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>239</v>
+        <v>401</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>278</v>
+        <v>450</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>288</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>239</v>
+        <v>401</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>279</v>
+        <v>451</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>289</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>239</v>
+        <v>401</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>280</v>
+        <v>452</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>290</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>239</v>
+        <v>401</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>281</v>
+        <v>453</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>291</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>246</v>
+        <v>402</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>412</v>
+        <v>313</v>
       </c>
       <c r="D29" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="H29" s="1">
         <v>2</v>
@@ -3522,93 +3711,93 @@
         <v>2</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>303</v>
+        <v>428</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>282</v>
+        <v>454</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>292</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>246</v>
+        <v>402</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>304</v>
+        <v>429</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>283</v>
+        <v>455</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>293</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>246</v>
+        <v>402</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>284</v>
+        <v>456</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>294</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>246</v>
+        <v>402</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>285</v>
+        <v>457</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>295</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>246</v>
+        <v>402</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>286</v>
+        <v>458</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>296</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>246</v>
+        <v>402</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>297</v>
+        <v>459</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>301</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>246</v>
+        <v>402</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>298</v>
+        <v>460</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>300</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>246</v>
+        <v>402</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>299</v>
+        <v>461</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>302</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -3626,10 +3815,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3641,13 +3830,13 @@
         <v>87</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3665,13 +3854,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -3682,125 +3871,125 @@
         <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>201</v>
+        <v>422</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>413</v>
+        <v>314</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>202</v>
+        <v>423</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>415</v>
+        <v>316</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>416</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>251</v>
+        <v>424</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>434</v>
+        <v>335</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>252</v>
+        <v>425</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>433</v>
+        <v>334</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>416</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>426</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>435</v>
+        <v>336</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>270</v>
+        <v>427</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>436</v>
+        <v>337</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>416</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>303</v>
+        <v>428</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>437</v>
+        <v>338</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>304</v>
+        <v>429</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>416</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3828,10 +4017,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -3847,7 +4036,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -3858,12 +4047,12 @@
         <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1">
         <v>16711935</v>
@@ -3871,7 +4060,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1">
         <v>-1</v>
@@ -3892,7 +4081,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
@@ -3954,18 +4143,18 @@
         <v>97</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>447</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>430</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -3973,13 +4162,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>431</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -3987,13 +4176,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>432</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -4001,13 +4190,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>203</v>
+        <v>433</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E8" s="1">
         <v>32</v>
@@ -4015,13 +4204,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>434</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E9" s="1">
         <v>32</v>
@@ -4029,13 +4218,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>205</v>
+        <v>435</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E10" s="1">
         <v>32</v>
@@ -4043,13 +4232,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>206</v>
+        <v>436</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E11" s="1">
         <v>32</v>
@@ -4057,13 +4246,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>207</v>
+        <v>437</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E12" s="1">
         <v>32</v>
@@ -4071,13 +4260,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>253</v>
+        <v>438</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E13" s="1">
         <v>32</v>
@@ -4085,13 +4274,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>254</v>
+        <v>439</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E14" s="1">
         <v>32</v>
@@ -4099,13 +4288,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>255</v>
+        <v>440</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E15" s="1">
         <v>32</v>
@@ -4113,13 +4302,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>256</v>
+        <v>441</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E16" s="1">
         <v>32</v>
@@ -4127,13 +4316,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>257</v>
+        <v>442</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E17" s="1">
         <v>32</v>
@@ -4141,13 +4330,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>258</v>
+        <v>443</v>
       </c>
       <c r="C18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E18" s="1">
         <v>32</v>
@@ -4155,13 +4344,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>259</v>
+        <v>444</v>
       </c>
       <c r="C19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E19" s="1">
         <v>32</v>
@@ -4169,13 +4358,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>260</v>
+        <v>445</v>
       </c>
       <c r="C20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E20" s="1">
         <v>32</v>
@@ -4183,13 +4372,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>271</v>
+        <v>446</v>
       </c>
       <c r="C21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E21" s="1">
         <v>32</v>
@@ -4197,13 +4386,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>273</v>
+        <v>447</v>
       </c>
       <c r="C22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E22" s="1">
         <v>32</v>
@@ -4211,13 +4400,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>276</v>
+        <v>448</v>
       </c>
       <c r="C23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E23" s="1">
         <v>32</v>
@@ -4225,13 +4414,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>277</v>
+        <v>449</v>
       </c>
       <c r="C24" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E24" s="1">
         <v>32</v>
@@ -4239,13 +4428,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>278</v>
+        <v>450</v>
       </c>
       <c r="C25" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E25" s="1">
         <v>32</v>
@@ -4253,13 +4442,13 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>279</v>
+        <v>451</v>
       </c>
       <c r="C26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E26" s="1">
         <v>32</v>
@@ -4267,13 +4456,13 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>280</v>
+        <v>452</v>
       </c>
       <c r="C27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E27" s="1">
         <v>32</v>
@@ -4281,13 +4470,13 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>281</v>
+        <v>453</v>
       </c>
       <c r="C28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E28" s="1">
         <v>32</v>
@@ -4295,13 +4484,13 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>282</v>
+        <v>454</v>
       </c>
       <c r="C29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E29" s="1">
         <v>32</v>
@@ -4309,13 +4498,13 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>283</v>
+        <v>455</v>
       </c>
       <c r="C30" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E30" s="1">
         <v>32</v>
@@ -4323,13 +4512,13 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>284</v>
+        <v>456</v>
       </c>
       <c r="C31" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E31" s="1">
         <v>32</v>
@@ -4337,13 +4526,13 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>285</v>
+        <v>457</v>
       </c>
       <c r="C32" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E32" s="1">
         <v>32</v>
@@ -4351,13 +4540,13 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>286</v>
+        <v>458</v>
       </c>
       <c r="C33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E33" s="1">
         <v>32</v>
@@ -4365,13 +4554,13 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>297</v>
+        <v>459</v>
       </c>
       <c r="C34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E34" s="1">
         <v>32</v>
@@ -4379,13 +4568,13 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>298</v>
+        <v>460</v>
       </c>
       <c r="C35" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E35" s="1">
         <v>32</v>
@@ -4393,13 +4582,13 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>299</v>
+        <v>461</v>
       </c>
       <c r="C36" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E36" s="1">
         <v>32</v>
@@ -4420,7 +4609,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -4491,12 +4680,12 @@
         <v>121</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>217</v>
+        <v>462</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4508,12 +4697,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>463</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4525,12 +4714,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>219</v>
+        <v>464</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -4542,12 +4731,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>220</v>
+        <v>465</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -4559,12 +4748,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>221</v>
+        <v>466</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -4576,12 +4765,12 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>222</v>
+        <v>467</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -4593,12 +4782,12 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>223</v>
+        <v>468</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -4610,12 +4799,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>224</v>
+        <v>469</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -4627,12 +4816,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>261</v>
+        <v>470</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -4644,12 +4833,12 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>262</v>
+        <v>471</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -4661,12 +4850,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>263</v>
+        <v>472</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -4678,12 +4867,12 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>264</v>
+        <v>473</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -4695,12 +4884,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>265</v>
+        <v>474</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -4712,12 +4901,12 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>266</v>
+        <v>475</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -4729,12 +4918,12 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>267</v>
+        <v>476</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -4746,12 +4935,12 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>268</v>
+        <v>477</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -4763,12 +4952,12 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>272</v>
+        <v>478</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -4780,12 +4969,12 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>275</v>
+        <v>479</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -4797,12 +4986,12 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>274</v>
+        <v>480</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -4814,12 +5003,12 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>287</v>
+        <v>481</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -4831,12 +5020,12 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>288</v>
+        <v>482</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -4848,12 +5037,12 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>289</v>
+        <v>483</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -4865,12 +5054,12 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>290</v>
+        <v>484</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -4882,12 +5071,12 @@
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>291</v>
+        <v>485</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -4899,12 +5088,12 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>292</v>
+        <v>486</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -4916,12 +5105,12 @@
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>293</v>
+        <v>487</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -4933,12 +5122,12 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>294</v>
+        <v>488</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -4950,12 +5139,12 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>295</v>
+        <v>489</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -4967,12 +5156,12 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>296</v>
+        <v>490</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -4984,12 +5173,12 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>301</v>
+        <v>491</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -5001,12 +5190,12 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>300</v>
+        <v>492</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -5018,12 +5207,12 @@
         <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>302</v>
+        <v>493</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -5035,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -5059,13 +5248,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>496</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>449</v>
+        <v>346</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>450</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -5081,7 +5270,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>451</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -5089,66 +5278,66 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>452</v>
+        <v>349</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>454</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>453</v>
+        <v>350</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>228</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>453</v>
+        <v>350</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>236</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>453</v>
+        <v>350</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>243</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>453</v>
+        <v>350</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>249</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>453</v>
+        <v>350</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>229</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>453</v>
+        <v>350</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>230</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>453</v>
+        <v>350</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>231</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -5183,13 +5372,13 @@
         <v>122</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>123</v>
@@ -5213,16 +5402,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>448</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -5233,13 +5422,13 @@
         <v>124</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>125</v>
@@ -5247,109 +5436,109 @@
     </row>
     <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>494</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>417</v>
+        <v>318</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>495</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>412</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>249</v>
+        <v>413</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="126" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>229</v>
+        <v>408</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>425</v>
+        <v>326</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="108" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>230</v>
+        <v>409</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>422</v>
+        <v>323</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>426</v>
+        <v>327</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>231</v>
+        <v>410</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>423</v>
+        <v>324</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5362,14 +5551,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C387734-4785-4809-ABB8-D3AE5D1EF48D}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5381,10 +5572,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5401,10 +5592,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -5415,69 +5606,69 @@
         <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>385</v>
+        <v>286</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>161</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>159</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>177</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>158</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>162</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>163</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -5508,13 +5699,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5522,13 +5713,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -5537,10 +5728,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -5548,24 +5739,24 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>460</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5597,13 +5788,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5611,13 +5802,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -5626,10 +5817,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -5637,35 +5828,35 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>456</v>
+        <v>353</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>458</v>
+        <v>355</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>461</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>459</v>
+        <v>356</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>461</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -5697,13 +5888,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>341</v>
+        <v>242</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5711,13 +5902,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -5726,10 +5917,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -5737,35 +5928,35 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>343</v>
+        <v>244</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>331</v>
+        <v>232</v>
       </c>
       <c r="C5">
         <v>19800</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>460</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>432</v>
+        <v>333</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>460</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5797,13 +5988,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>344</v>
+        <v>245</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5811,13 +6002,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>345</v>
+        <v>246</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -5826,10 +6017,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -5837,24 +6028,24 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>328</v>
+        <v>229</v>
       </c>
       <c r="C5">
         <v>448</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>462</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5885,13 +6076,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>346</v>
+        <v>247</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5899,13 +6090,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -5914,10 +6105,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -5925,24 +6116,24 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="C5">
         <v>500</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>463</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -5960,7 +6151,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -5976,16 +6167,16 @@
         <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -6004,16 +6195,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -6024,33 +6215,33 @@
         <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>160</v>
+        <v>392</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>386</v>
+        <v>287</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6115,10 +6306,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6136,14 +6327,14 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6155,16 +6346,16 @@
         <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>30</v>
@@ -6195,16 +6386,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>33</v>
@@ -6224,19 +6415,19 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>38</v>
@@ -6247,28 +6438,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>161</v>
+        <v>393</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>388</v>
+        <v>289</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>389</v>
+        <v>290</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>390</v>
+        <v>291</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>328</v>
+        <v>229</v>
       </c>
       <c r="H5" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
       <c r="I5" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -6302,16 +6493,16 @@
         <v>98</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -6330,16 +6521,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -6350,33 +6541,33 @@
         <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>395</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>391</v>
+        <v>292</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>392</v>
+        <v>293</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>393</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -6394,7 +6585,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
@@ -6411,19 +6602,19 @@
         <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -6443,19 +6634,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -6466,39 +6657,39 @@
         <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>394</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>394</v>
+        <v>295</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>395</v>
+        <v>296</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>396</v>
+        <v>297</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>329</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6516,17 +6707,17 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6538,16 +6729,16 @@
         <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>45</v>
@@ -6590,16 +6781,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>51</v>
@@ -6628,19 +6819,19 @@
         <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>43</v>
@@ -6660,34 +6851,34 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>396</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>397</v>
+        <v>298</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>398</v>
+        <v>299</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>399</v>
+        <v>300</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>431</v>
+        <v>332</v>
       </c>
       <c r="H5" s="1">
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>332</v>
+        <v>233</v>
       </c>
       <c r="J5" s="1">
         <v>0.95</v>
       </c>
       <c r="K5" t="s">
-        <v>427</v>
+        <v>328</v>
       </c>
       <c r="L5" s="1">
         <v>20</v>
@@ -6695,36 +6886,36 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>162</v>
+        <v>397</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>401</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>398</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>402</v>
+        <v>303</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>403</v>
+        <v>304</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
       <c r="G7" t="s">
-        <v>331</v>
+        <v>232</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
@@ -6733,7 +6924,7 @@
         <v>0.5</v>
       </c>
       <c r="K7" t="s">
-        <v>428</v>
+        <v>329</v>
       </c>
       <c r="L7" s="1">
         <v>5.12</v>
@@ -6750,21 +6941,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7689A4D9-61F1-4D68-B2DF-2ED5097F8E75}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6776,7 +6965,7 @@
         <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -6788,10 +6977,10 @@
         <v>62</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>441</v>
+        <v>342</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>63</v>
@@ -6818,7 +7007,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -6830,10 +7019,10 @@
         <v>65</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>442</v>
+        <v>343</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>66</v>
@@ -6847,7 +7036,7 @@
         <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
@@ -6859,10 +7048,10 @@
         <v>69</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>439</v>
+        <v>340</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>70</v>
@@ -6870,202 +7059,202 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>405</v>
+        <v>306</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>182</v>
+        <v>399</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>228</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>229</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>230</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>231</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>406</v>
+        <v>307</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>236</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>229</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>230</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>231</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>407</v>
+        <v>308</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>239</v>
+        <v>401</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>243</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>229</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>230</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>231</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>408</v>
+        <v>309</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>246</v>
+        <v>402</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>249</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>229</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>230</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>231</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/spim.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/spim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16389A8-27D7-413F-A3EF-9DB12A02471D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D759157-7730-4F82-BEE9-3D2C9A590301}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="862" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
   </bookViews>
@@ -48,10 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="497">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="496">
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
@@ -119,66 +116,33 @@
     <t>datatype</t>
   </si>
   <si>
-    <t>:Instrument</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
     <t>Microscope</t>
   </si>
   <si>
-    <t>:Microscope</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>:Manufacturer</t>
-  </si>
-  <si>
     <t>Laser</t>
   </si>
   <si>
-    <t>wave length</t>
-  </si>
-  <si>
     <t>laser type</t>
   </si>
   <si>
     <t>laser medium</t>
   </si>
   <si>
-    <t>:waveLength</t>
-  </si>
-  <si>
-    <t>:laserType</t>
-  </si>
-  <si>
-    <t>:laserMedium</t>
-  </si>
-  <si>
-    <t>:Laser</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
-    <t>:LaserType</t>
-  </si>
-  <si>
     <t>xsd:positiveInteger</t>
   </si>
   <si>
-    <t>:LaserMedium</t>
-  </si>
-  <si>
     <t>Detector</t>
   </si>
   <si>
-    <t>:Detector</t>
-  </si>
-  <si>
     <t>xsd:float</t>
   </si>
   <si>
@@ -203,33 +167,6 @@
     <t>calibrated maginification</t>
   </si>
   <si>
-    <t>:workingDistance</t>
-  </si>
-  <si>
-    <t>:nominalMagnification</t>
-  </si>
-  <si>
-    <t>:correction</t>
-  </si>
-  <si>
-    <t>:lensNA</t>
-  </si>
-  <si>
-    <t>:immersion</t>
-  </si>
-  <si>
-    <t>:calibratedMagnification</t>
-  </si>
-  <si>
-    <t>:Objective</t>
-  </si>
-  <si>
-    <t>:Correction</t>
-  </si>
-  <si>
-    <t>:Immersion</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -242,27 +179,9 @@
     <t>annotation</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:annotation</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
-    <t>:Annotation</t>
-  </si>
-  <si>
     <t>Pixels</t>
   </si>
   <si>
@@ -299,33 +218,12 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
-    <t>:PixelType</t>
-  </si>
-  <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
     <t>color</t>
   </si>
   <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
-    <t>:Plane</t>
-  </si>
-  <si>
     <t>Binary Data</t>
   </si>
   <si>
@@ -335,33 +233,12 @@
     <t>data</t>
   </si>
   <si>
-    <t>:length</t>
-  </si>
-  <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
     <t>LED</t>
   </si>
   <si>
-    <t>:LightEmittingDiode</t>
-  </si>
-  <si>
-    <t>:Medium</t>
-  </si>
-  <si>
-    <t>:ObjectiveSettings</t>
-  </si>
-  <si>
-    <t>:medium</t>
-  </si>
-  <si>
-    <t>:correctionCollar</t>
-  </si>
-  <si>
     <t>medium</t>
   </si>
   <si>
@@ -377,15 +254,6 @@
     <t>position y</t>
   </si>
   <si>
-    <t>:positionX</t>
-  </si>
-  <si>
-    <t>:positionY</t>
-  </si>
-  <si>
-    <t>:StageLabel</t>
-  </si>
-  <si>
     <t>Plane</t>
   </si>
   <si>
@@ -401,18 +269,6 @@
     <t>the z</t>
   </si>
   <si>
-    <t>:theC</t>
-  </si>
-  <si>
-    <t>:theT</t>
-  </si>
-  <si>
-    <t>:exposureTime</t>
-  </si>
-  <si>
-    <t>:theZ</t>
-  </si>
-  <si>
     <t>xsd:nonNegativeInteger</t>
   </si>
   <si>
@@ -422,9 +278,6 @@
     <t>XML annotation value</t>
   </si>
   <si>
-    <t>:XMLAnnotation</t>
-  </si>
-  <si>
     <t>rdf:XMLLiteral</t>
   </si>
   <si>
@@ -527,18 +380,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:manufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:string</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:ManufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>instrument:instrument0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -555,10 +400,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:string</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -567,46 +408,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:serialNumber</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>microscope type</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:microscopeType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:MicroscopeType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>manufacturer</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>detector type</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:detectorType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DetectorType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -623,30 +436,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:instrument</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Instrument</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:objectiveSettings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>stage label</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:StageLabel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:stageLabel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>medium:oil</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -675,10 +468,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:flour</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -701,14 +490,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:plane</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Plane</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -738,10 +519,6 @@
   </si>
   <si>
     <t>namespace</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:namespace</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -872,10 +649,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType:uint8</t>
   </si>
   <si>
@@ -1092,58 +865,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Instrument:SpimSampleMicroscope1</t>
   </si>
   <si>
@@ -1318,10 +1039,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:ImagingCondition</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Imaging Condition</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1330,10 +1047,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:imagingCondition</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:nonNegativeLong</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1350,22 +1063,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:annotation</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:StructuredAnnotations</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[structuredAnnotation:0]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Annotation</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[position:1frame]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1908,6 +1609,350 @@
   </si>
   <si>
     <t>English Attribution</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ManufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Microscope</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:serialNumber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:microscopeType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:MicroscopeType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Laser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:laserType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LaserType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:wavelength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wavelength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:laserMedium</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LaserMedium</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightEmittingDiode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Detector</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:detectorType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DetectorType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:workingDistance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:nominalMagnification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:correction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Correction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lensNA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:immersion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Immersion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:calibratedMagnification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:imagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ImagingCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:objectiveSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ObjectiveSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:stageLabel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:StageLabel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:correctionCollar</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:medium</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Medium</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:StageLabel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:positionX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:positionY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:plane</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Plane</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:flour</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Plane</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:theZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:theT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:theC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:exposureTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:StructuredAnnotations</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:XMLAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:namespace</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2336,378 +2381,378 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>269</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>330</v>
+        <v>248</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>331</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>361</v>
+        <v>274</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>362</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>363</v>
+        <v>276</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>364</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>378</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>365</v>
+        <v>278</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>379</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>366</v>
+        <v>279</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>380</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>381</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>368</v>
+        <v>281</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>382</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>369</v>
+        <v>282</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>383</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>370</v>
+        <v>283</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>384</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>385</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>386</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>388</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>375</v>
+        <v>288</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>389</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>376</v>
+        <v>289</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>390</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>377</v>
+        <v>290</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>391</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2734,24 +2779,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2760,90 +2805,90 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>179</v>
+        <v>452</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>182</v>
+        <v>454</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>177</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>340</v>
+        <v>449</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>453</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>181</v>
+        <v>455</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>178</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>414</v>
+        <v>327</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>418</v>
+        <v>331</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>415</v>
+        <v>328</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>419</v>
+        <v>332</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>416</v>
+        <v>329</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>420</v>
+        <v>333</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>406</v>
+        <v>319</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>417</v>
+        <v>330</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>421</v>
+        <v>334</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2863,31 +2908,31 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2896,90 +2941,90 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>103</v>
+        <v>456</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>102</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>101</v>
+        <v>453</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>100</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>414</v>
+        <v>327</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>298</v>
+        <v>216</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>415</v>
+        <v>328</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>298</v>
+        <v>216</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>416</v>
+        <v>329</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>298</v>
+        <v>216</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>417</v>
+        <v>330</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>298</v>
+        <v>216</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3005,118 +3050,118 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>109</v>
+        <v>460</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>110</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>418</v>
+        <v>331</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>352</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>419</v>
+        <v>332</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>354</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>420</v>
+        <v>333</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>352</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>421</v>
+        <v>334</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>354</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3138,7 +3183,7 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -3148,54 +3193,54 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3214,114 +3259,114 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>220</v>
+        <v>462</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>273</v>
+        <v>464</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>274</v>
+        <v>466</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>275</v>
+        <v>467</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>276</v>
+        <v>468</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>277</v>
+        <v>469</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>278</v>
+        <v>470</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>279</v>
+        <v>471</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>280</v>
+        <v>472</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>283</v>
+        <v>473</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>284</v>
+        <v>475</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>197</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>444</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>282</v>
+        <v>474</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>285</v>
+        <v>476</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>198</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>310</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -3339,113 +3384,113 @@
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>422</v>
+        <v>335</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>430</v>
+        <v>343</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>462</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>423</v>
+        <v>336</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>431</v>
+        <v>344</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>463</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>432</v>
+        <v>345</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>464</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>433</v>
+        <v>346</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>465</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>434</v>
+        <v>347</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>466</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>435</v>
+        <v>348</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>467</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>436</v>
+        <v>349</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>468</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>437</v>
+        <v>350</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>311</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -3463,113 +3508,113 @@
         <v>2</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>424</v>
+        <v>337</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>438</v>
+        <v>351</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>425</v>
+        <v>338</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>439</v>
+        <v>352</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>471</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>472</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>442</v>
+        <v>355</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>474</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>443</v>
+        <v>356</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>475</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>444</v>
+        <v>357</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>476</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>445</v>
+        <v>358</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="H21" s="1">
         <v>2</v>
@@ -3587,113 +3632,113 @@
         <v>2</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>426</v>
+        <v>339</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>446</v>
+        <v>359</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>478</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>427</v>
+        <v>340</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>447</v>
+        <v>360</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>479</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>448</v>
+        <v>361</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>480</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>449</v>
+        <v>362</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>481</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>450</v>
+        <v>363</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>482</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>451</v>
+        <v>364</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>483</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>452</v>
+        <v>365</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>484</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>453</v>
+        <v>366</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>313</v>
+        <v>231</v>
       </c>
       <c r="D29" t="s">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="H29" s="1">
         <v>2</v>
@@ -3711,93 +3756,93 @@
         <v>2</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>428</v>
+        <v>341</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>454</v>
+        <v>367</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>486</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>429</v>
+        <v>342</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>455</v>
+        <v>368</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>487</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>456</v>
+        <v>369</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>488</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>458</v>
+        <v>371</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>490</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>459</v>
+        <v>372</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>491</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>461</v>
+        <v>374</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>493</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -3824,24 +3869,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3850,146 +3895,146 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>480</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>190</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>479</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>90</v>
+        <v>481</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>422</v>
+        <v>335</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>315</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>423</v>
+        <v>336</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>316</v>
+        <v>234</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>317</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>424</v>
+        <v>337</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>335</v>
+        <v>253</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>315</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>425</v>
+        <v>338</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>334</v>
+        <v>252</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>317</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>426</v>
+        <v>339</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>336</v>
+        <v>254</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>315</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>427</v>
+        <v>340</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>317</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>428</v>
+        <v>341</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>338</v>
+        <v>256</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>315</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>429</v>
+        <v>342</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>339</v>
+        <v>257</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>317</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4014,45 +4059,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>481</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1">
         <v>16711935</v>
@@ -4060,7 +4105,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1">
         <v>-1</v>
@@ -4082,7 +4127,7 @@
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -4090,24 +4135,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4116,45 +4161,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>484</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>96</v>
+        <v>485</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>95</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>483</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>344</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>430</v>
+        <v>343</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -4162,13 +4207,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>431</v>
+        <v>344</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -4176,13 +4221,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>432</v>
+        <v>345</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -4190,13 +4235,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>433</v>
+        <v>346</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E8" s="1">
         <v>32</v>
@@ -4204,13 +4249,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>434</v>
+        <v>347</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E9" s="1">
         <v>32</v>
@@ -4218,13 +4263,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>435</v>
+        <v>348</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E10" s="1">
         <v>32</v>
@@ -4232,13 +4277,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>436</v>
+        <v>349</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E11" s="1">
         <v>32</v>
@@ -4246,13 +4291,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>437</v>
+        <v>350</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1">
         <v>32</v>
@@ -4260,13 +4305,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>438</v>
+        <v>351</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="E13" s="1">
         <v>32</v>
@@ -4274,13 +4319,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>439</v>
+        <v>352</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E14" s="1">
         <v>32</v>
@@ -4288,13 +4333,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>440</v>
+        <v>353</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E15" s="1">
         <v>32</v>
@@ -4302,13 +4347,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E16" s="1">
         <v>32</v>
@@ -4316,13 +4361,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>442</v>
+        <v>355</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E17" s="1">
         <v>32</v>
@@ -4330,13 +4375,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>443</v>
+        <v>356</v>
       </c>
       <c r="C18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E18" s="1">
         <v>32</v>
@@ -4344,13 +4389,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>444</v>
+        <v>357</v>
       </c>
       <c r="C19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E19" s="1">
         <v>32</v>
@@ -4358,13 +4403,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>445</v>
+        <v>358</v>
       </c>
       <c r="C20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E20" s="1">
         <v>32</v>
@@ -4372,13 +4417,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>446</v>
+        <v>359</v>
       </c>
       <c r="C21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E21" s="1">
         <v>32</v>
@@ -4386,13 +4431,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>447</v>
+        <v>360</v>
       </c>
       <c r="C22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E22" s="1">
         <v>32</v>
@@ -4400,13 +4445,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>448</v>
+        <v>361</v>
       </c>
       <c r="C23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E23" s="1">
         <v>32</v>
@@ -4414,13 +4459,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>449</v>
+        <v>362</v>
       </c>
       <c r="C24" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E24" s="1">
         <v>32</v>
@@ -4428,13 +4473,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>450</v>
+        <v>363</v>
       </c>
       <c r="C25" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E25" s="1">
         <v>32</v>
@@ -4442,13 +4487,13 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>451</v>
+        <v>364</v>
       </c>
       <c r="C26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E26" s="1">
         <v>32</v>
@@ -4456,13 +4501,13 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>452</v>
+        <v>365</v>
       </c>
       <c r="C27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E27" s="1">
         <v>32</v>
@@ -4470,13 +4515,13 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>453</v>
+        <v>366</v>
       </c>
       <c r="C28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E28" s="1">
         <v>32</v>
@@ -4484,13 +4529,13 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>454</v>
+        <v>367</v>
       </c>
       <c r="C29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E29" s="1">
         <v>32</v>
@@ -4498,13 +4543,13 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>455</v>
+        <v>368</v>
       </c>
       <c r="C30" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E30" s="1">
         <v>32</v>
@@ -4512,13 +4557,13 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>456</v>
+        <v>369</v>
       </c>
       <c r="C31" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E31" s="1">
         <v>32</v>
@@ -4526,13 +4571,13 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>457</v>
+        <v>370</v>
       </c>
       <c r="C32" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E32" s="1">
         <v>32</v>
@@ -4540,13 +4585,13 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>458</v>
+        <v>371</v>
       </c>
       <c r="C33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E33" s="1">
         <v>32</v>
@@ -4554,13 +4599,13 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>459</v>
+        <v>372</v>
       </c>
       <c r="C34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E34" s="1">
         <v>32</v>
@@ -4568,13 +4613,13 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="C35" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E35" s="1">
         <v>32</v>
@@ -4582,13 +4627,13 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>461</v>
+        <v>374</v>
       </c>
       <c r="C36" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="E36" s="1">
         <v>32</v>
@@ -4611,33 +4656,33 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4647,45 +4692,45 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>120</v>
+        <v>488</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>118</v>
+        <v>489</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>117</v>
+        <v>490</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>119</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>487</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>462</v>
+        <v>375</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -4697,12 +4742,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>463</v>
+        <v>376</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -4714,12 +4759,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>464</v>
+        <v>377</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -4731,12 +4776,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>465</v>
+        <v>378</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -4748,12 +4793,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>466</v>
+        <v>379</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -4765,12 +4810,12 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>467</v>
+        <v>380</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -4782,12 +4827,12 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>468</v>
+        <v>381</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -4799,12 +4844,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -4816,12 +4861,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -4833,12 +4878,12 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -4850,12 +4895,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>472</v>
+        <v>385</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -4867,12 +4912,12 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -4884,12 +4929,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>474</v>
+        <v>387</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -4901,12 +4946,12 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>475</v>
+        <v>388</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -4918,12 +4963,12 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -4935,12 +4980,12 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -4952,12 +4997,12 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>478</v>
+        <v>391</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -4969,12 +5014,12 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>479</v>
+        <v>392</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -4986,12 +5031,12 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>480</v>
+        <v>393</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -5003,12 +5048,12 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>481</v>
+        <v>394</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -5020,12 +5065,12 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>482</v>
+        <v>395</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -5037,12 +5082,12 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -5054,12 +5099,12 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>484</v>
+        <v>397</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -5071,12 +5116,12 @@
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -5088,12 +5133,12 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>486</v>
+        <v>399</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -5105,12 +5150,12 @@
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>487</v>
+        <v>400</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -5122,12 +5167,12 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>488</v>
+        <v>401</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -5139,12 +5184,12 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>489</v>
+        <v>402</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -5156,12 +5201,12 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>490</v>
+        <v>403</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -5173,12 +5218,12 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>491</v>
+        <v>404</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -5190,12 +5235,12 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -5207,12 +5252,12 @@
         <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>493</v>
+        <v>406</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -5224,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5242,102 +5287,102 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>496</v>
+        <v>409</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>346</v>
+        <v>262</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>347</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>348</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>349</v>
+        <v>492</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>351</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>350</v>
+        <v>264</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>350</v>
+        <v>264</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>495</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>350</v>
+        <v>264</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>412</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>350</v>
+        <v>264</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>413</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>350</v>
+        <v>264</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>350</v>
+        <v>264</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>409</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>350</v>
+        <v>264</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -5366,179 +5411,179 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>207</v>
+        <v>495</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>345</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>495</v>
+        <v>408</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>319</v>
+        <v>237</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>412</v>
+        <v>325</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>320</v>
+        <v>238</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>413</v>
+        <v>326</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>321</v>
+        <v>239</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="126" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>322</v>
+        <v>240</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>326</v>
+        <v>244</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="108" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>409</v>
+        <v>322</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>327</v>
+        <v>245</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>324</v>
+        <v>242</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -5551,9 +5596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C387734-4785-4809-ABB8-D3AE5D1EF48D}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5566,21 +5609,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5588,87 +5631,87 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>153</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>155</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>392</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>393</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>394</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>395</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>397</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>398</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5696,67 +5739,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>237</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>240</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>241</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5785,78 +5828,78 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>237</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>240</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>241</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>355</v>
+        <v>268</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>356</v>
+        <v>269</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5885,78 +5928,78 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>237</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>240</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>241</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="C5">
         <v>19800</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5985,67 +6028,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>245</v>
+        <v>176</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>240</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>241</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c r="C5">
         <v>448</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>359</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -6073,67 +6116,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>240</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>241</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <v>500</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>360</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -6152,8 +6195,8 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -6161,27 +6204,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6191,57 +6234,57 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>163</v>
+        <v>416</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>165</v>
+        <v>417</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>168</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>414</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>166</v>
+        <v>418</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>169</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>392</v>
+        <v>305</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>287</v>
+        <v>205</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>288</v>
+        <v>206</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -6266,50 +6309,50 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -6330,8 +6373,8 @@
     <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.796875" style="1" bestFit="1" customWidth="1"/>
@@ -6340,36 +6383,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>30</v>
+        <v>426</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6382,84 +6425,84 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>168</v>
+        <v>419</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>163</v>
+        <v>416</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>425</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>423</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>422</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>169</v>
+        <v>420</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>38</v>
+        <v>424</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>40</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>393</v>
+        <v>306</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" t="s">
         <v>157</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H5" t="s">
-        <v>226</v>
-      </c>
       <c r="I5" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6477,37 +6520,37 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6517,57 +6560,57 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>168</v>
+        <v>419</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>163</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>429</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>169</v>
+        <v>420</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>395</v>
+        <v>308</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>293</v>
+        <v>211</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>294</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6580,7 +6623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806B2945-FD1B-4AC5-AE0D-E42EA76887AA}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6588,38 +6633,38 @@
     <col min="2" max="2" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6630,66 +6675,66 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>168</v>
+        <v>419</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>163</v>
+        <v>416</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>171</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>430</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>169</v>
+        <v>420</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>172</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>394</v>
+        <v>307</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>297</v>
+        <v>215</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6711,57 +6756,57 @@
     <col min="3" max="3" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6777,108 +6822,108 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>168</v>
+        <v>419</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>163</v>
+        <v>416</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>51</v>
+        <v>434</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>52</v>
+        <v>435</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>53</v>
+        <v>436</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>54</v>
+        <v>438</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>55</v>
+        <v>439</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>56</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>433</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>169</v>
+        <v>420</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>58</v>
+        <v>437</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>59</v>
+        <v>440</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>298</v>
+        <v>216</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>299</v>
+        <v>217</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>332</v>
+        <v>250</v>
       </c>
       <c r="H5" s="1">
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="J5" s="1">
         <v>0.95</v>
       </c>
       <c r="K5" t="s">
-        <v>328</v>
+        <v>246</v>
       </c>
       <c r="L5" s="1">
         <v>20</v>
@@ -6886,36 +6931,36 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>397</v>
+        <v>310</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>302</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>398</v>
+        <v>311</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="G7" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
@@ -6924,7 +6969,7 @@
         <v>0.5</v>
       </c>
       <c r="K7" t="s">
-        <v>329</v>
+        <v>247</v>
       </c>
       <c r="L7" s="1">
         <v>5.12</v>
@@ -6959,41 +7004,41 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>342</v>
+        <v>259</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -7003,258 +7048,258 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>64</v>
+        <v>443</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>445</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>177</v>
+        <v>446</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>343</v>
+        <v>448</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>66</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>68</v>
+        <v>444</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>178</v>
+        <v>447</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>340</v>
+        <v>449</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>70</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>306</v>
+        <v>224</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>409</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>307</v>
+        <v>225</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>411</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>409</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>308</v>
+        <v>226</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>412</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>409</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>406</v>
+        <v>319</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>413</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>408</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>409</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>410</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
